--- a/RecyclerView_note.xlsx
+++ b/RecyclerView_note.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="RecyclerView" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="code" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>RecyclerView是ViewGroup的子类，每一个列表项都是作为一个View子对象显示的。这些</t>
   </si>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iiiiiiiiiiiiiiiiiiiiii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,14 +332,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14547</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>653283</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>143579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>343933</xdr:colOff>
+      <xdr:colOff>299110</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>135136</xdr:rowOff>
     </xdr:to>
@@ -354,8 +358,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6846271" y="7146096"/>
-          <a:ext cx="2378903" cy="2724247"/>
+          <a:off x="6805312" y="7035197"/>
+          <a:ext cx="2380063" cy="2680968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4438,14 +4442,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
@@ -4455,9 +4459,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8858250" y="9497786"/>
-          <a:ext cx="6789964" cy="108857"/>
+        <a:xfrm>
+          <a:off x="8177893" y="10559143"/>
+          <a:ext cx="7456714" cy="108857"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6156,8 +6160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK26" sqref="AK22:BE26"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6347,10 +6351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L15"/>
+  <dimension ref="L15:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6360,6 +6364,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="22" spans="27:27" x14ac:dyDescent="0.15">
+      <c r="AA22" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
